--- a/biology/Histoire de la zoologie et de la botanique/Warwick_Estevam_Kerr/Warwick_Estevam_Kerr.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Warwick_Estevam_Kerr/Warwick_Estevam_Kerr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Warwick Estevam Kerr (9 septembre 1922, Santana de Parnaíba, São Paulo, Brésil - 15 septembre 2018[1]) est un ingénieur agricole brésilien, généticien, entomologiste et professeur. Il est surtout connu pour ses découvertes en génétique et dans le domaine de la détermination du sexe des abeilles.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Warwick Estevam Kerr (9 septembre 1922, Santana de Parnaíba, São Paulo, Brésil - 15 septembre 2018) est un ingénieur agricole brésilien, généticien, entomologiste et professeur. Il est surtout connu pour ses découvertes en génétique et dans le domaine de la détermination du sexe des abeilles.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
